--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-711686.6565299791</v>
+        <v>-714221.6274058338</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>57.89934023899456</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>234.2009798174998</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>80.14252623959381</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.913332137196321</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>67.75703983272086</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.5658328192442</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>149.0897904115743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>394.2091448452401</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>120.1114409361571</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>187.5857964298749</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>117.034061933962</v>
+        <v>277.4371263899608</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>24.07148043193456</v>
+        <v>17.27586147159564</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>97.54185816719558</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462247</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>181.6459914616335</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>99.18584932336083</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>95.12712756824172</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652629</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796256</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>863.2862738200351</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2972.837166339058</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2599.371408077978</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>879.4585928684153</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>710.5224099405084</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>560.4057705281726</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>412.4926769457795</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>412.4926769457795</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>244.7898403204985</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1923.34168734385</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1923.34168734385</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1854.900232967364</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1854.900232967364</v>
+        <v>1289.096608596672</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>1289.096608596672</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>1289.096608596672</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>1061.107057698655</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>1061.107057698655</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1528.069587875904</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1159.107070935492</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1159.107070935492</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>773.3188183372481</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410103</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X5" t="n">
-        <v>2588.318918149023</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y5" t="n">
-        <v>2198.179586173211</v>
+        <v>1914.669427940026</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>899.0183448486844</v>
+        <v>626.9042569062804</v>
       </c>
       <c r="C7" t="n">
-        <v>730.0821619207775</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D7" t="n">
-        <v>579.9655225084417</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E7" t="n">
-        <v>432.0524289260486</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>285.1624814281382</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1416.425065783662</v>
+        <v>1137.114006086771</v>
       </c>
       <c r="W7" t="n">
-        <v>1127.007895746702</v>
+        <v>847.6968360498105</v>
       </c>
       <c r="X7" t="n">
-        <v>899.0183448486844</v>
+        <v>847.6968360498105</v>
       </c>
       <c r="Y7" t="n">
-        <v>899.0183448486844</v>
+        <v>626.9042569062804</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943746</v>
+        <v>1870.65619074133</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943746</v>
+        <v>1870.65619074133</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943746</v>
+        <v>1512.39049213458</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919558</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943746</v>
+        <v>2257.256030805452</v>
       </c>
     </row>
     <row r="9">
@@ -4875,16 +4875,16 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>699.5498076188339</v>
+        <v>664.8171257877602</v>
       </c>
       <c r="C10" t="n">
-        <v>699.5498076188339</v>
+        <v>495.8809428598533</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4996,16 +4996,16 @@
         <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.990851592604</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="X10" t="n">
-        <v>1101.990851592604</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="Y10" t="n">
-        <v>881.1982724490737</v>
+        <v>846.465590618</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171305</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553168</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429811</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429811</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429811</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.615197557861</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473703</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5267,16 +5267,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,43 +5285,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>740.5562989961525</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5495,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5653,19 +5653,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1051.964939354869</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>883.0287564269624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>732.9121170146267</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>584.9990234322336</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6215,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6926,19 +6926,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,19 +7075,19 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345481</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384025</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7163,16 +7163,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075805</v>
@@ -7181,13 +7181,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,13 +7430,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>307.373551532013</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>152.0369588385538</v>
       </c>
     </row>
     <row r="3">
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>64.61248867472698</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,19 +22753,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>151.7919094434483</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>69.70496293143225</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>104.8770068749575</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
-        <v>144.634190040853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>46.23519869957042</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>53.48834544997064</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1012179.461344978</v>
+        <v>1012179.461344979</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1180731.616955719</v>
+        <v>1180731.616955718</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1180731.616955719</v>
+        <v>1180731.616955718</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254693</v>
+        <v>207271.1201254694</v>
       </c>
       <c r="C2" t="n">
         <v>246312.530959285</v>
@@ -26323,10 +26323,10 @@
         <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
+        <v>242143.9799070017</v>
+      </c>
+      <c r="G2" t="n">
         <v>242143.9799070018</v>
-      </c>
-      <c r="G2" t="n">
-        <v>242143.9799070017</v>
       </c>
       <c r="H2" t="n">
         <v>242143.9799070018</v>
@@ -26335,25 +26335,25 @@
         <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592847</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104482.7459291437</v>
+        <v>104482.7459291435</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.968558980384842e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16075.56073090176</v>
+        <v>16075.56073090175</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="P4" t="n">
         <v>19157.89151488699</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1245483.126894418</v>
+        <v>-1245808.4719847</v>
       </c>
       <c r="C6" t="n">
-        <v>48024.52337474693</v>
+        <v>48024.52337474711</v>
       </c>
       <c r="D6" t="n">
-        <v>48024.52337474699</v>
+        <v>48024.5233747469</v>
       </c>
       <c r="E6" t="n">
-        <v>-195558.0439760542</v>
+        <v>-195592.7819014894</v>
       </c>
       <c r="F6" t="n">
-        <v>129854.4178313014</v>
+        <v>129819.6799058653</v>
       </c>
       <c r="G6" t="n">
-        <v>129854.4178313011</v>
+        <v>129819.6799058655</v>
       </c>
       <c r="H6" t="n">
-        <v>129854.4178313012</v>
+        <v>129819.6799058655</v>
       </c>
       <c r="I6" t="n">
-        <v>129854.4178313011</v>
+        <v>129819.6799058655</v>
       </c>
       <c r="J6" t="n">
-        <v>-87676.7845659764</v>
+        <v>-87711.52249141208</v>
       </c>
       <c r="K6" t="n">
-        <v>129854.4178313012</v>
+        <v>129819.6799058655</v>
       </c>
       <c r="L6" t="n">
-        <v>129854.4178313013</v>
+        <v>129819.6799058655</v>
       </c>
       <c r="M6" t="n">
-        <v>19507.77766133868</v>
+        <v>19507.77766133886</v>
       </c>
       <c r="N6" t="n">
-        <v>123990.5235904827</v>
+        <v>123990.5235904824</v>
       </c>
       <c r="O6" t="n">
         <v>123990.5235904826</v>
       </c>
       <c r="P6" t="n">
-        <v>123990.5235904825</v>
+        <v>123990.5235904826</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>85.01882053285101</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>152.6460053863687</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.6440512519063</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>12.6669008964713</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27777,19 +27777,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>45.91436732287109</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>64.5518468939531</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>264.8963081382998</v>
+        <v>104.4932436823009</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>124.5439925862778</v>
+        <v>131.3396115466167</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28573,13 +28573,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963288</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,19 +32075,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>182.7118610708585</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>704.1404939038099</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164546</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>55.87423440419181</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>572.7987818204766</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,10 +37953,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
